--- a/other/요구사항명세서.xlsx
+++ b/other/요구사항명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbl\programming\..workspace\sources\genti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbl\programming\..workspace\sources\genti\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF44275-CFA1-436E-9FA7-158E8B3F49E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB12B8EC-BAD0-4D08-8141-5522F9736FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3615" windowWidth="21570" windowHeight="11220" activeTab="1" xr2:uid="{F7669BFA-5A96-480D-A76A-E32174DDDAF3}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{F7669BFA-5A96-480D-A76A-E32174DDDAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="api명세" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>담당자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,10 +132,6 @@
   </si>
   <si>
     <t>사용자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -427,11 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-B
-RQ-C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모든 사용자의 게시글이 최신 순으로 노출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,6 +432,105 @@
   </si>
   <si>
     <t>24시간 전까지 soft delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-G0001</t>
+  </si>
+  <si>
+    <t>RQ-G0002</t>
+  </si>
+  <si>
+    <t>RQ-G0003</t>
+  </si>
+  <si>
+    <t>RQ-G0004</t>
+  </si>
+  <si>
+    <t>RQ-G0005</t>
+  </si>
+  <si>
+    <t>RQ-G0006</t>
+  </si>
+  <si>
+    <t>RQ-G0007</t>
+  </si>
+  <si>
+    <t>RQ-G0008</t>
+  </si>
+  <si>
+    <t>RQ-G0009</t>
+  </si>
+  <si>
+    <t>RQ-G0010</t>
+  </si>
+  <si>
+    <t>RQ-G0011</t>
+  </si>
+  <si>
+    <t>RQ-G0012</t>
+  </si>
+  <si>
+    <t>RQ-G0013</t>
+  </si>
+  <si>
+    <t>RQ-G0014</t>
+  </si>
+  <si>
+    <t>RQ-C0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-C0002</t>
+  </si>
+  <si>
+    <t>RQ-C0003</t>
+  </si>
+  <si>
+    <t>RQ-C0004</t>
+  </si>
+  <si>
+    <t>RQ-U0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RQ-U0002</t>
+  </si>
+  <si>
+    <t>RQ-U0003</t>
+  </si>
+  <si>
+    <t>RQ-U0004</t>
+  </si>
+  <si>
+    <t>RQ-U0005</t>
+  </si>
+  <si>
+    <t>RQ-U0006</t>
+  </si>
+  <si>
+    <t>RQ-U0007</t>
+  </si>
+  <si>
+    <t>RQ-U0008</t>
+  </si>
+  <si>
+    <t>RQ-U0009</t>
+  </si>
+  <si>
+    <t>RQ-A0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +595,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,18 +936,18 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,19 +993,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB71DF57-D504-421E-8624-639370EDEEF8}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="78.375" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.3984375" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -941,404 +1034,410 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>101</v>
+      </c>
+      <c r="M3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" t="s">
+    <row r="12" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" t="s">
+    <row r="15" spans="1:13" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" t="s">
+    <row r="16" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="99" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>97</v>
       </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
         <v>90</v>
       </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:13" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="132" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
